--- a/data/income_statement/2digits/size/10_IS_MICRO.xlsx
+++ b/data/income_statement/2digits/size/10_IS_MICRO.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>10-Manufacture of food products</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>10-Manufacture of food products</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,1106 +841,1251 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>1296096.5496</v>
+        <v>1409760.21397</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>1295447.84983</v>
+        <v>1430723.25627</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>1380893.56776</v>
+        <v>1546169.38573</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>1375834.49409</v>
+        <v>1540427.1551</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>1521882.9315</v>
+        <v>1750870.84031</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>1495893.66212</v>
+        <v>1740834.3538</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>1573141.39427</v>
+        <v>1897317.82498</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>1798457.91628</v>
+        <v>2144970.27072</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>1951030.76408</v>
+        <v>2361550.5182</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>4493210.95199</v>
+        <v>5069163.36751</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>5131799.16256</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>5963385.15356</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>6148734.165</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>1222385.43025</v>
+        <v>1326516.6179</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>1227261.72971</v>
+        <v>1351698.09252</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>1317636.90048</v>
+        <v>1468095.26923</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>1298093.70026</v>
+        <v>1446818.21854</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>1459552.23119</v>
+        <v>1670249.6144</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>1438784.03258</v>
+        <v>1663394.68388</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>1499790.7716</v>
+        <v>1797664.67579</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>1709405.49345</v>
+        <v>2026307.52125</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>1841513.67287</v>
+        <v>2221798.124</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>4083272.82031</v>
+        <v>4594232.39914</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>4736030.146780001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>5462525.142139999</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>5674056.565</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>59332.55818000001</v>
+        <v>65236.26141</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>53244.80578</v>
+        <v>58682.27948999999</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>48475.05901</v>
+        <v>55862.10759</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>62284.29732</v>
+        <v>69154.29807999999</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>50928.25719</v>
+        <v>59294.41679</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>43668.05628000001</v>
+        <v>52467.82320000001</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>58093.19607000001</v>
+        <v>71406.04944</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>70271.99718999999</v>
+        <v>83262.59082000001</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>85450.36343</v>
+        <v>98715.36297999999</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>357171.00455</v>
+        <v>401178.18201</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>336810.48779</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>405351.87784</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>369889.943</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>14378.56117</v>
+        <v>18007.33466</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>14941.31434</v>
+        <v>20342.88426</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>14781.60827</v>
+        <v>22212.00891</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>15456.49651</v>
+        <v>24454.63848</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>11402.44312</v>
+        <v>21326.80912</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>13441.57326</v>
+        <v>24971.84672</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>15257.4266</v>
+        <v>28247.09975</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>18780.42564</v>
+        <v>35400.15865</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>24066.72778</v>
+        <v>41037.03122</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>52767.12712999999</v>
+        <v>73752.78636</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>58958.52799</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>95508.13358000001</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>104787.657</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>7995.316049999999</v>
+        <v>8940.925110000002</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>8718.411619999999</v>
+        <v>11410.34923</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>6999.205079999999</v>
+        <v>8667.629489999999</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>8545.84655</v>
+        <v>9836.90164</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>8659.41884</v>
+        <v>10607.60197</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>8466.491410000001</v>
+        <v>10717.88825</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>7669.758760000001</v>
+        <v>9908.393620000001</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>7178.633980000001</v>
+        <v>10086.69611</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>7382.43057</v>
+        <v>14107.13126</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>26266.66515</v>
+        <v>30738.99922</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>27999.74656</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>33300.41481</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>59877.301</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>6002.06749</v>
+        <v>6763.75325</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>7324.72327</v>
+        <v>9393.252129999999</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>6031.066140000001</v>
+        <v>7345.277279999999</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>7210.725149999999</v>
+        <v>8154.91112</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>7543.27805</v>
+        <v>9378.09749</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>6779.257430000001</v>
+        <v>8917.700500000001</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>6433.11988</v>
+        <v>7929.525439999999</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>5456.85613</v>
+        <v>8165.076859999999</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>6170.796060000001</v>
+        <v>12459.29698</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>21274.27296</v>
+        <v>24966.54639</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>22120.54786</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>26541.73868</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>53320.195</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>1518.81865</v>
+        <v>1657.49375</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>830.6239099999999</v>
+        <v>1436.52844</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>512.3738000000001</v>
+        <v>807.3414799999999</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>926.2180299999999</v>
+        <v>1239.20964</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>857.1302900000001</v>
+        <v>928.4540599999999</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>1171.53889</v>
+        <v>1259.23829</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>835.9507000000001</v>
+        <v>1406.07724</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>1438.02092</v>
+        <v>1584.22728</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>783.1761199999999</v>
+        <v>985.44575</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>3519.15311</v>
+        <v>4192.91667</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>4440.36992</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>4683.97881</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>4574.129</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>474.42991</v>
+        <v>519.6781100000001</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>563.06444</v>
+        <v>580.56866</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>455.76514</v>
+        <v>515.01073</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>408.90337</v>
+        <v>442.78088</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>259.0105</v>
+        <v>301.05042</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>515.6950899999999</v>
+        <v>540.9494599999999</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>400.68818</v>
+        <v>572.7909400000001</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>283.75693</v>
+        <v>337.39197</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>428.45839</v>
+        <v>662.3885300000001</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>1473.23908</v>
+        <v>1579.53616</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>1438.82878</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>2074.69732</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>1982.977</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>1288101.23355</v>
+        <v>1400819.28886</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>1286729.43821</v>
+        <v>1419312.90704</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>1373894.36268</v>
+        <v>1537501.75624</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>1367288.64754</v>
+        <v>1530590.25346</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>1513223.51266</v>
+        <v>1740263.23834</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>1487427.17071</v>
+        <v>1730116.46555</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>1565471.63551</v>
+        <v>1887409.43136</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>1791279.2823</v>
+        <v>2134883.57461</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>1943648.33351</v>
+        <v>2347443.38694</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>4466944.28684</v>
+        <v>5038424.36829</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>5103799.416</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>5930084.73875</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>6088856.864</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>1094354.6526</v>
+        <v>1191680.36502</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>1097032.12145</v>
+        <v>1208121.33081</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>1170006.47322</v>
+        <v>1307813.7579</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>1146046.59233</v>
+        <v>1280084.77788</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>1278836.22853</v>
+        <v>1473288.45964</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>1252613.95205</v>
+        <v>1453910.33571</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>1325388.46174</v>
+        <v>1590883.16142</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>1519304.08577</v>
+        <v>1794873.81533</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>1641849.08579</v>
+        <v>1954856.8013</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>3812879.17042</v>
+        <v>4294932.17021</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>4362797.38416</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>5050150.22855</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>5160278.688</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>567155.8965400001</v>
+        <v>623505.7673000001</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>559299.01387</v>
+        <v>627922.61435</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>625331.6898200001</v>
+        <v>713321.0519300001</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>611430.43386</v>
+        <v>686387.98826</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>731477.0415800001</v>
+        <v>848776.6414</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>734039.6996000001</v>
+        <v>854523.90735</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>746060.80912</v>
+        <v>888260.52628</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>842802.0964800001</v>
+        <v>1009656.05549</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>880985.79736</v>
+        <v>1073695.95312</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>1988514.25449</v>
+        <v>2257856.31891</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>2353881.85639</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>2743461.66823</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>2727797.513</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>480871.12688</v>
+        <v>518030.4739099999</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>493005.3034</v>
+        <v>530219.8942399999</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>488526.54697</v>
+        <v>530877.45835</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>475457.87809</v>
+        <v>524306.4767</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>481804.88795</v>
+        <v>547105.02881</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>453875.78713</v>
+        <v>517994.01531</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>513271.26031</v>
+        <v>618064.04901</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>600984.38242</v>
+        <v>688556.7519299999</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>673063.43181</v>
+        <v>769535.3255899999</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>1655593.3248</v>
+        <v>1845161.57074</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>1804203.23844</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>2068633.33887</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>2172869.802</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>37744.36175</v>
+        <v>41116.48884999999</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>40234.59657</v>
+        <v>44340.99571</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>50615.39907</v>
+        <v>57494.54425</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>54689.43208</v>
+        <v>63325.74273</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>54792.41024</v>
+        <v>63459.10076</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>57614.24476000001</v>
+        <v>69833.77606</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>56997.82277</v>
+        <v>72835.65095000001</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>68709.77509000001</v>
+        <v>85884.62754999999</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>79232.71365000001</v>
+        <v>98283.90482</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>152783.07932</v>
+        <v>172121.07901</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>173819.53753</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>199669.1676</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>230523.136</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>8583.26743</v>
+        <v>9027.634960000001</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>4493.207609999999</v>
+        <v>5637.82651</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>5532.83736</v>
+        <v>6120.70337</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>4468.8483</v>
+        <v>6064.57019</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>10761.88876</v>
+        <v>13947.68867</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>7084.220560000001</v>
+        <v>11558.63699</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>9058.569539999999</v>
+        <v>11722.93518</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>6807.83178</v>
+        <v>10776.38036</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>8567.142969999999</v>
+        <v>13341.61777</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>15988.51181</v>
+        <v>19793.20155</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>30892.75180000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>38386.05385</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>29088.237</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>193746.58095</v>
+        <v>209138.92384</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>189697.31676</v>
+        <v>211191.57623</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>203887.88946</v>
+        <v>229687.99834</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>221242.05521</v>
+        <v>250505.47558</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>234387.28413</v>
+        <v>266974.7787</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>234813.21866</v>
+        <v>276206.12984</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>240083.17377</v>
+        <v>296526.26994</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>271975.19653</v>
+        <v>340009.75928</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>301799.24772</v>
+        <v>392586.5856400001</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>654065.11642</v>
+        <v>743492.1980799999</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>741002.03184</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>879934.5102</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>928578.176</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>171523.45109</v>
+        <v>202171.94869</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>177480.54168</v>
+        <v>216702.60724</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>193490.85263</v>
+        <v>240435.31535</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>216770.8741</v>
+        <v>268733.1465499999</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>230764.34892</v>
+        <v>302114.04195</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>231309.1094200001</v>
+        <v>311955.92436</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>244174.52105</v>
+        <v>343834.97179</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>290332.49731</v>
+        <v>402218.45556</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>314895.77354</v>
+        <v>450096.7635700001</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>614731.1993199999</v>
+        <v>745690.1446299999</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>729205.5059300001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>946193.19099</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>979932.728</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>894.4659200000001</v>
+        <v>939.7936300000001</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>902.1768099999999</v>
+        <v>1055.96043</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>246.59474</v>
+        <v>461.45735</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>1345.28456</v>
+        <v>1663.96589</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>347.12812</v>
+        <v>1819.17251</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>634.4229799999999</v>
+        <v>869.0904399999999</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>684.50525</v>
+        <v>1594.76781</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>1464.88924</v>
+        <v>1929.91482</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>1118.28859</v>
+        <v>1571.9897</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>1210.93949</v>
+        <v>2516.55076</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>1338.4537</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1766.20959</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>3552.171</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>44941.79783</v>
+        <v>49069.11972</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>44045.41579</v>
+        <v>49221.35384</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>49946.57098</v>
+        <v>55610.0545</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>53626.41739</v>
+        <v>60116.13011999999</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>55391.13764</v>
+        <v>67399.17989</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>55175.77579000001</v>
+        <v>65987.55195000001</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>56895.88044000001</v>
+        <v>71261.80551999999</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>64083.86106999999</v>
+        <v>80865.21138000001</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>70910.32141</v>
+        <v>90360.3066</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>151174.30845</v>
+        <v>171515.3371</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>181434.99045</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>220637.70901</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>224660.092</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>125687.18734</v>
+        <v>152163.03534</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>132532.94908</v>
+        <v>166425.29297</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>143297.68691</v>
+        <v>184363.8035</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>161799.17215</v>
+        <v>206953.05054</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>175026.08316</v>
+        <v>232895.68955</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>175498.91065</v>
+        <v>245099.28197</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>186594.13536</v>
+        <v>270978.39846</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>224783.747</v>
+        <v>319423.32936</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>242867.16354</v>
+        <v>358164.46727</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>462345.95138</v>
+        <v>571658.25677</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>546432.06178</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>723789.2723899999</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>751720.465</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>22223.12986</v>
+        <v>6966.97515</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>12216.77508</v>
+        <v>-5511.03101</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>10397.03683</v>
+        <v>-10747.31701</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>4471.18111</v>
+        <v>-18227.67097</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>3622.93521</v>
+        <v>-35139.26325</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>3504.10924</v>
+        <v>-35749.79452</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>-4091.34728</v>
+        <v>-47308.70185</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-18357.30078</v>
+        <v>-62208.69628</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>-13096.52582</v>
+        <v>-57510.17793000001</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>39333.9171</v>
+        <v>-2197.94655</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>11796.52591</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>-66258.68079</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>-51354.552</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>6617.814260000001</v>
+        <v>376668.26074</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>9246.2214</v>
+        <v>414839.54419</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>9389.60008</v>
+        <v>590401.12074</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>16654.58972</v>
+        <v>853534.3022100001</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>9356.08186</v>
+        <v>126766.31239</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>9247.801369999999</v>
+        <v>139851.25548</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>7724.45945</v>
+        <v>197410.4452</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>11275.34374</v>
+        <v>236455.9817100001</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>9988.939250000001</v>
+        <v>350776.01583</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>37387.56230000001</v>
+        <v>557683.58521</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>34125.62003</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>5216508.384620001</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>474022.71</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>239.57491</v>
+        <v>25376.54573</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>17.60215</v>
+        <v>21797.01587</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>3.70584</v>
+        <v>22512.73219</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>21.78659</v>
+        <v>30086.79473000001</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>88.96730000000001</v>
+        <v>41391.32068</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>107.4273</v>
+        <v>33974.22211</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>80.34647</v>
+        <v>56036.48388</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>56.73894</v>
+        <v>69405.55031999999</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>134.03284</v>
+        <v>150783.97816</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>225.0205</v>
+        <v>158723.72773</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>1346.62476</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>4826786.7437</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>116814.336</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>0</v>
+        <v>295529.71498</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>0</v>
+        <v>319284.48031</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>0</v>
+        <v>383502.44646</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>0</v>
+        <v>503447.13891</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>0</v>
+        <v>6998.30908</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>36.5</v>
+        <v>5135.99</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>2.04677</v>
+        <v>9509.37111</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>0</v>
+        <v>13196.50078</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>0.02018</v>
+        <v>22728.7411</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>63.33346000000001</v>
+        <v>87503.88531</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>9.32648</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>34879.32173</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>13526.209</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>501.7275299999999</v>
+        <v>13542.64935</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>449.07444</v>
+        <v>13276.32775</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>426.09103</v>
+        <v>9603.02528</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>390.25898</v>
+        <v>18266.96689</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>383.71133</v>
+        <v>6532.951700000001</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>542.83692</v>
+        <v>13309.31798</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>794.6569000000001</v>
+        <v>13423.7086</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>860.7941</v>
+        <v>17258.16985</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>688.80002</v>
+        <v>23858.97846</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>3621.0935</v>
+        <v>26962.99301</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>5569.39658</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>37416.04279</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>33242.499</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>63.69714999999999</v>
+        <v>63.99714999999999</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>146.95128</v>
+        <v>152.78092</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>1651.73519</v>
+        <v>1704.02725</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>94.71384999999999</v>
+        <v>181.31009</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>169.92223</v>
+        <v>173.08449</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>243.25909</v>
+        <v>244.75855</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>93.47712</v>
+        <v>100.8864</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>57.35992</v>
+        <v>378.7139</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>110.89058</v>
+        <v>441.8323</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>352.13661</v>
+        <v>4109.89153</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>562.89464</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>7004.18095</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>4438.907</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>580.66593</v>
+        <v>7642.085529999999</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>470.8199300000001</v>
+        <v>7570.24978</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>306.73494</v>
+        <v>7503.91985</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>639.20836</v>
+        <v>8559.620220000001</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>450.32951</v>
+        <v>7895.443800000001</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>285.5833</v>
+        <v>546.2395</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>85.2</v>
+        <v>849.22185</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>475.81793</v>
+        <v>981.1753800000001</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>97.20002000000001</v>
+        <v>724.4214899999999</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>521.5792700000001</v>
+        <v>711.78808</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>398.75951</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>463.44353</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>1025.348</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>58.67333</v>
+        <v>1370.50057</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>176.48442</v>
+        <v>693.74163</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>55.3916</v>
+        <v>1426.57867</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>259.68803</v>
+        <v>413.8732199999999</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>430.35777</v>
+        <v>963.7388999999999</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>377.40048</v>
+        <v>389.3047</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>71.72342999999999</v>
+        <v>112.95293</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>19.15258</v>
+        <v>3396.34667</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>25.65753</v>
+        <v>6021.356500000001</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>176.47838</v>
+        <v>201.46416</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>602.43723</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>1137.90337</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>1525.85</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>1785.80729</v>
+        <v>19428.72393</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>4558.12229</v>
+        <v>32017.39994</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>2814.55949</v>
+        <v>154407.31129</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>3251.91713</v>
+        <v>274509.50716</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>1566.63227</v>
+        <v>45661.60548999999</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>1727.89141</v>
+        <v>66133.45855</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>1464.48546</v>
+        <v>95464.38112000001</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>2883.86537</v>
+        <v>105448.30296</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>1903.93609</v>
+        <v>111912.20775</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>21348.6248</v>
+        <v>234524.33504</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>9741.02144</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>253853.78792</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>240143.345</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>4.66219</v>
@@ -2054,10 +2100,10 @@
         <v>0</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>5.01585</v>
+        <v>10.75916</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>0</v>
+        <v>1.96177</v>
       </c>
       <c r="I33" s="48" t="n">
         <v>1.44298</v>
@@ -2069,292 +2115,332 @@
         <v>0</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>0</v>
+        <v>0.53808</v>
       </c>
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>16.182</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
-        <v>9.00207</v>
+        <v>41.85552</v>
       </c>
       <c r="D34" s="48" t="n">
         <v>10.80649</v>
       </c>
       <c r="E34" s="48" t="n">
-        <v>3.75391</v>
+        <v>70.59951999999998</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>52.42314</v>
+        <v>86.78987000000001</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>59.97093</v>
+        <v>73.67093000000001</v>
       </c>
       <c r="H34" s="48" t="n">
         <v>5.95192</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>6.23729</v>
+        <v>87.48248</v>
       </c>
       <c r="J34" s="48" t="n">
         <v>13.30548</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>18.70053</v>
+        <v>142.40886</v>
       </c>
       <c r="L34" s="48" t="n">
         <v>15.69347</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>18.05188</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>18.83722</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>272.565</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>3374.00386</v>
+        <v>13667.52579</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>3407.4604</v>
+        <v>20027.84149999999</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>4127.61941</v>
+        <v>9670.47156</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>11944.59364</v>
+        <v>17982.30112</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>6201.17467</v>
+        <v>17065.42816</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>5920.950949999999</v>
+        <v>20110.0504</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>5124.84303</v>
+        <v>21824.51385</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>6904.3015</v>
+        <v>26373.90845</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>7009.70146</v>
+        <v>34162.09121</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>11063.60231</v>
+        <v>44929.2688</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>15877.10751</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>54948.12341000001</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>63017.469</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>4729.42587</v>
+        <v>41826.20010999999</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>6202.78646</v>
+        <v>37681.25825</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>9631.788040000001</v>
+        <v>142981.79381</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>6883.31039</v>
+        <v>230239.59395</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>11303.96063</v>
+        <v>103546.90824</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>6270.62045</v>
+        <v>133116.23963</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>4612.51148</v>
+        <v>210255.84412</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>9800.229979999998</v>
+        <v>330814.50586</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>7068.47503</v>
+        <v>181800.36432</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>31803.97402</v>
+        <v>479811.59504</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>19367.59677</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>457494.6037</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>584037.882</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>168.82415</v>
+        <v>965.11298</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>172.62493</v>
+        <v>2983.97266</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>777.60481</v>
+        <v>919.9934499999999</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>223.92776</v>
+        <v>341.9241</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>414.67283</v>
+        <v>516.0804999999999</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>522.39611</v>
+        <v>579.7733699999999</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>169.28672</v>
+        <v>220.69705</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>250.30126</v>
+        <v>431.0415600000001</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>195.83301</v>
+        <v>424.14142</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>739.2653200000001</v>
+        <v>777.61816</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>1055.05785</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>1080.88151</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>2673.536</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>1135.33523</v>
+        <v>1397.61722</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>168.41713</v>
+        <v>1217.21609</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>1075.4366</v>
+        <v>1149.28401</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>1029.22506</v>
+        <v>2450.577769999999</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>5238.406960000001</v>
+        <v>5983.434069999999</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>481.25078</v>
+        <v>649.12599</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>616.6406899999999</v>
+        <v>2602.39335</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>5147.6455</v>
+        <v>5972.056170000001</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>630.20617</v>
+        <v>2926.93152</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>1555.89595</v>
+        <v>5301.97558</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>2257.67571</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>2825.50868</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>68754.905</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>1.66317</v>
+        <v>218.10096</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>69.73684999999999</v>
+        <v>226.2524</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>40.56192</v>
+        <v>295.39055</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>45.32210000000001</v>
+        <v>160.4599</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>230.56098</v>
+        <v>265.62893</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>842.1432300000001</v>
+        <v>34435.64504</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>40.78912999999999</v>
+        <v>80.89941999999999</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>3.81449</v>
+        <v>276.70916</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>58.87425</v>
+        <v>6140.3178</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>20.43574</v>
+        <v>418.75574</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>245.71081</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>1363.28585</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>81.172</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>1598.50736</v>
+        <v>31156.30873</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>2837.45675</v>
+        <v>20508.00498</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>5103.744979999999</v>
+        <v>133940.92038</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>2044.14176</v>
+        <v>200204.56182</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>2048.57882</v>
+        <v>91886.24510000001</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>1923.35132</v>
+        <v>89351.37213</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>1898.86375</v>
+        <v>193541.9849</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>2188.23345</v>
+        <v>312373.10825</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>4800.104750000001</v>
+        <v>160211.16145</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>25958.39741</v>
+        <v>464633.25247</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>10287.43563</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>432474.7995799999</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>503513.815</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>8.368679999999999</v>
+        <v>29.08155</v>
       </c>
       <c r="D41" s="48" t="n">
         <v>11.18467</v>
@@ -2366,31 +2452,36 @@
         <v>6.67665</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>2.4046</v>
+        <v>6.14042</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>2.21874</v>
+        <v>132.14588</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>14.9417</v>
+        <v>1386.94697</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>0.378</v>
+        <v>74.35642</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>0.28235</v>
+        <v>51.10337</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>89.21471000000001</v>
+        <v>121.9131</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>140.40256</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>707.85578</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>49.318</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>10.51497</v>
@@ -2399,25 +2490,25 @@
         <v>0.4665</v>
       </c>
       <c r="E42" s="48" t="n">
-        <v>0.00054</v>
+        <v>94.24254000000001</v>
       </c>
       <c r="F42" s="48" t="n">
-        <v>24.92703</v>
+        <v>34.49713</v>
       </c>
       <c r="G42" s="48" t="n">
         <v>14.66298</v>
       </c>
       <c r="H42" s="48" t="n">
-        <v>0</v>
+        <v>32.98</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>0</v>
+        <v>5.999999999999999e-05</v>
       </c>
       <c r="J42" s="48" t="n">
         <v>0</v>
       </c>
       <c r="K42" s="48" t="n">
-        <v>0</v>
+        <v>1e-05</v>
       </c>
       <c r="L42" s="48" t="n">
         <v>1.15254</v>
@@ -2425,593 +2516,671 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>171.72</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>1806.21231</v>
+        <v>8049.463699999999</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>2942.89963</v>
+        <v>12734.16095</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>2628.10247</v>
+        <v>6575.62616</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>3509.09003</v>
+        <v>27040.89658</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>3354.67346</v>
+        <v>4874.716240000001</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>2499.26027</v>
+        <v>7935.19722</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>1871.98949</v>
+        <v>12422.92237</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>2209.85728</v>
+        <v>11687.2343</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>1383.1745</v>
+        <v>12046.70875</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>3439.61235</v>
+        <v>8556.927450000001</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>5381.31421</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>19042.2723</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>8793.415999999999</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>10419.47798</v>
+        <v>122739.58637</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>7568.94886</v>
+        <v>159376.59942</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>9526.01196</v>
+        <v>383915.02892</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>10497.85637</v>
+        <v>70196.25199999999</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>8669.630989999998</v>
+        <v>166190.90303</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>9510.935410000002</v>
+        <v>134833.98213</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>9042.709220000001</v>
+        <v>240934.86628</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>15310.30617</v>
+        <v>291127.92582</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>12634.1517</v>
+        <v>252602.206</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>44529.67497</v>
+        <v>548434.64922</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>48814.59639</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>550164.8573100001</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>191135.609</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>9726.573259999999</v>
+        <v>16764.2585</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>6984.2001</v>
+        <v>13521.39198</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>8997.868460000002</v>
+        <v>16632.84768</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>10019.5772</v>
+        <v>19126.61375</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>8188.08882</v>
+        <v>158048.2745</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>9012.909310000001</v>
+        <v>129830.98587</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>8538.099340000001</v>
+        <v>233899.94278</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>14749.31219</v>
+        <v>283131.85709</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>10186.53888</v>
+        <v>240077.56554</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>37644.86032</v>
+        <v>530021.86949</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>45360.94743</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>529602.78822</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>184035.171</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>692.90472</v>
+        <v>105975.32787</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>584.7487600000001</v>
+        <v>145855.20744</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>528.1435</v>
+        <v>367282.1812399999</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>478.27917</v>
+        <v>51069.63825</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>481.5421700000001</v>
+        <v>8142.62853</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>498.0261</v>
+        <v>5002.996260000001</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>504.60988</v>
+        <v>7034.923500000001</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>560.99398</v>
+        <v>7996.068730000001</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>2447.61282</v>
+        <v>12524.64046</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>6884.81465</v>
+        <v>18412.77973</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>3453.64896</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>20562.06909</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>7100.438</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>13692.04027</v>
+        <v>219069.44941</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>7691.261160000001</v>
+        <v>212270.65551</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>628.8369100000009</v>
+        <v>52756.981</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>3744.60407</v>
+        <v>534870.78529</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-6994.574549999998</v>
+        <v>-178110.76213</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-3029.64525</v>
+        <v>-163848.7608</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-10022.10853</v>
+        <v>-301088.96705</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-32192.49319</v>
+        <v>-447695.14625</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>-22810.2133</v>
+        <v>-141136.73242</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>387.8304100000006</v>
+        <v>-472760.6056</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-22260.04722</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>4142590.24282</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-352505.333</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>5546.739759999999</v>
+        <v>14844.42759</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>9066.20362</v>
+        <v>26603.46284</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>8805.715840000001</v>
+        <v>22608.09548</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>16651.51859</v>
+        <v>34015.85499</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>9994.741320000001</v>
+        <v>42670.35886</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>10055.00015</v>
+        <v>43741.93443</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>10975.05462</v>
+        <v>43514.95006</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>16916.20546</v>
+        <v>50829.87080999999</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>14813.46345</v>
+        <v>63550.74883999999</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>32360.06579</v>
+        <v>83230.12751999999</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>32432.88081</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>120377.74599</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>190654.12</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>194.86031</v>
+        <v>275.92051</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>228.20981</v>
+        <v>2241.38291</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>109.02446</v>
+        <v>204.95153</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>112.56889</v>
+        <v>258.18871</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>910.50087</v>
+        <v>1416.36979</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>272.44326</v>
+        <v>23612.88875</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>45.09102000000001</v>
+        <v>193.65261</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>177.83929</v>
+        <v>212.18029</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>885.26687</v>
+        <v>2558.2279</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>131.95936</v>
+        <v>942.87211</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>128.09298</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>1866.55951</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>3166.744</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>5351.879449999999</v>
+        <v>14568.50708</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>8837.99381</v>
+        <v>24362.07993</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>8696.691379999998</v>
+        <v>22403.14395</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>16538.9497</v>
+        <v>33757.66628</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>9084.240449999999</v>
+        <v>41253.98907000001</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>9782.55689</v>
+        <v>20129.04568</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>10929.9636</v>
+        <v>43321.29745000001</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>16738.36617</v>
+        <v>50617.69052</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>13928.19658</v>
+        <v>60992.52093999999</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>32228.10643</v>
+        <v>82287.25541</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>32304.78783</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>118511.18648</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>187487.376</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>10521.06785</v>
+        <v>17415.75128</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>9131.269299999998</v>
+        <v>39471.27686</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>48533.88743</v>
+        <v>113641.47411</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>9805.582849999999</v>
+        <v>25910.94601</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>16741.71828</v>
+        <v>59178.72394</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>23422.32952</v>
+        <v>51544.83516</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>30121.7151</v>
+        <v>50733.1097</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>56665.94899</v>
+        <v>100563.66881</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>20277.67787</v>
+        <v>59914.77263</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>60072.95873</v>
+        <v>116268.00144</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>27485.41747</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>63676.52512000001</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>1177840.222</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>683.82158</v>
+        <v>1299.03604</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>1010.22689</v>
+        <v>5427.90829</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>936.3519200000001</v>
+        <v>2380.89439</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>1430.71085</v>
+        <v>2910.7345</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>972.8954100000001</v>
+        <v>4265.26442</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>976.7652300000001</v>
+        <v>5824.50755</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>1249.81781</v>
+        <v>2664.70482</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>1414.2126</v>
+        <v>10117.13611</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>1455.29262</v>
+        <v>8043.396400000001</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>2126.69976</v>
+        <v>9089.918679999999</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>1816.76761</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>8269.79495</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>17753.971</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>822.64669</v>
+        <v>1709.29244</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>800.1858</v>
+        <v>1475.00177</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>903.98987</v>
+        <v>2515.07424</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>952.8202899999998</v>
+        <v>3822.28285</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>727.7643499999999</v>
+        <v>939.54876</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>1957.12212</v>
+        <v>4626.62844</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>1257.32172</v>
+        <v>2322.92638</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>992.1388199999999</v>
+        <v>2531.28947</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>1204.64754</v>
+        <v>2391.19551</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>2176.44508</v>
+        <v>4875.33203</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>1158.70632</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>2208.82481</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>12907.306</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>9014.59958</v>
+        <v>14407.4228</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>7320.856610000001</v>
+        <v>32568.3668</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>46693.54564</v>
+        <v>108745.50548</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>7422.051710000001</v>
+        <v>19177.92866</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>15041.05852</v>
+        <v>53973.91075999999</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>20488.44217</v>
+        <v>41093.69917000001</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>27614.57557</v>
+        <v>45745.47849999999</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>54259.59757000001</v>
+        <v>87915.24323000001</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>17617.73771</v>
+        <v>49480.18072</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>55769.81389</v>
+        <v>102302.75073</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>24509.94354</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>53197.90536</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>1147178.945</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>8717.71218</v>
+        <v>216498.12572</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>7626.195479999999</v>
+        <v>199402.84149</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-39099.33468</v>
+        <v>-38276.39762999999</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>10590.53981</v>
+        <v>542975.69427</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-13741.55151</v>
+        <v>-194619.12721</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-16396.97462</v>
+        <v>-171651.66153</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-29168.76901</v>
+        <v>-308307.12669</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-71942.23672</v>
+        <v>-497428.9442499999</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>-28274.42772</v>
+        <v>-137500.75621</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-27325.06253</v>
+        <v>-505798.47952</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>-17312.58388</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>4199291.46369</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-1339691.435</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>6513.636420000001</v>
+        <v>8158.44174</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>7328.03584</v>
+        <v>9574.61498</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>6859.93907</v>
+        <v>8692.04592</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>7516.93006</v>
+        <v>9036.334779999999</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>7474.469470000001</v>
+        <v>9582.350789999999</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>7502.78108</v>
+        <v>11216.93341</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>8481.104809999999</v>
+        <v>16034.08679</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>8932.4804</v>
+        <v>16013.51056</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>8786.17851</v>
+        <v>16100.87605</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>20787.3027</v>
+        <v>37239.08347999999</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>23602.59222</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>34861.70353</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>51705.204</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>2204.07576</v>
+        <v>208339.68398</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>298.15964</v>
+        <v>189828.22651</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-45959.27375</v>
+        <v>-46968.44355</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>3073.60975</v>
+        <v>533939.3594899999</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-21216.02098</v>
+        <v>-204201.478</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-23899.7557</v>
+        <v>-182868.59494</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-37649.87382</v>
+        <v>-324341.21348</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-80874.71712</v>
+        <v>-513442.45481</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-37060.60623</v>
+        <v>-153601.63226</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-48112.36523</v>
+        <v>-543037.563</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-40915.1761</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>4164429.760160001</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-1391396.639</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>5232</v>
+        <v>5682</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>5233</v>
+        <v>5744</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>5181</v>
+        <v>5743</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>5137</v>
+        <v>5788</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>5315</v>
+        <v>6179</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>5202</v>
+        <v>6139</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>5161</v>
+        <v>6262</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>5485</v>
+        <v>6717</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>5770</v>
+        <v>7151</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>6694</v>
+        <v>8554</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>7054</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>9526</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>10428</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>